--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -474,6 +474,14 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
+  </si>
+  <si>
+    <t>shop_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップCD</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -562,7 +570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,6 +584,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -596,11 +608,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -611,6 +625,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -939,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1126,451 +1142,448 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10001</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f>CONCATENATE(B17, "の説明")</f>
-        <v>ナイフの説明</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
-        <v>ダガーの説明</v>
+        <f>CONCATENATE(B18, "の説明")</f>
+        <v>ナイフの説明</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
+        <f t="shared" ref="G19:G49" si="0">CONCATENATE(B19, "の説明")</f>
+        <v>ダガーの説明</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
+        <v>ハチェットの説明</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>1500</v>
+        <v>560</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
+        <v>レイピアの説明</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ファルシオンの説明</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>10006</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10006</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2">
         <v>9800</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>まさかりの説明</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>10007</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>斬鉄剣の説明</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
-        <v>10008</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10008</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>人民服の説明</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
+        <v>人民服の説明</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
+        <v>ローブの説明</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
+        <v>柔道着の説明</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
+        <v>レザーアーマーの説明</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>くされかたびらの説明</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>10013</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10013</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2">
         <v>5000</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>プレートメイルの説明</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>10014</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>魔法の鎧の説明</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
-        <v>10015</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10015</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
+        <v>なべのふたの説明</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
+        <v>木の盾の説明</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>鉄の盾の説明</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8">
+        <v>10018</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10018</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>むぎわら帽子の説明</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10019</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1578,10 +1591,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1592,342 +1605,364 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
+        <v>ケトルハットの説明</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10020</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>ヘルムの説明</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
-        <v>10021</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="2">
-        <v>20001</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
+        <v>ポーションの説明</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
+        <v>ポーションAの説明</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
+        <v>ポーションXの説明</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
+        <v>ポーションXXXの説明</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8">
-        <v>10026</v>
+        <v>10025</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
+        <v>エーテルの説明</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8">
-        <v>10027</v>
+        <v>10026</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
+        <v>エーテルWの説明</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8">
-        <v>10028</v>
+        <v>10027</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
+        <v>エーテルZの説明</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8">
-        <v>10029</v>
+        <v>10028</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
+        <v>エーテルZZの説明</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8">
-        <v>10030</v>
+        <v>10029</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>エリクサーの説明</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8">
+        <v>10030</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20010</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="2">
         <v>100000</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>恋の秘薬の説明</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2">
-        <v>20011</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>賢者の石の説明</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="9" t="str">
+      <c r="G49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>たいまつの説明</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8">
-        <v>10036</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="2">
-        <f>E37*10 * ( 1 -D49)</f>
-        <v>90</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8">
+        <v>10036</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="2">
+        <f>E38*10 * ( 1 -D50)</f>
+        <v>90</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8">
         <v>10037</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>0.2</v>
       </c>
-      <c r="E50" s="2">
-        <f>(E17+E24+E37) *(1-D50)</f>
+      <c r="E51" s="2">
+        <f>(E18+E25+E38) *(1-D51)</f>
         <v>32</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="83">
-      <c r="A51" s="8">
+    <row r="52" spans="1:7" ht="83">
+      <c r="A52" s="8">
         <v>10038</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>0.3</v>
       </c>
-      <c r="E51" s="2">
-        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+      <c r="E52" s="2">
+        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
         <v>1596</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>111</v>
       </c>
     </row>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -958,7 +958,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>113</v>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -474,14 +474,6 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
-  </si>
-  <si>
-    <t>shop_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップCD</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -955,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1142,448 +1134,451 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>CONCATENATE(B17, "の説明")</f>
+        <v>ナイフの説明</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f>CONCATENATE(B18, "の説明")</f>
-        <v>ナイフの説明</v>
+        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
+        <v>ダガーの説明</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" ref="G19:G49" si="0">CONCATENATE(B19, "の説明")</f>
-        <v>ダガーの説明</v>
+        <f t="shared" si="0"/>
+        <v>ハチェットの説明</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
+        <v>レイピアの説明</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>560</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
+        <v>ファルシオンの説明</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
-        <v>1500</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
+        <v>まさかりの説明</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>10006</v>
+      <c r="A23" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2">
-        <v>9800</v>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>まさかりの説明</v>
+        <v>斬鉄剣の説明</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
+      <c r="A24" s="8">
+        <v>10008</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
+      <c r="E24" s="2">
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>斬鉄剣の説明</v>
+        <v>人民服の説明</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>人民服の説明</v>
+        <v>ローブの説明</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
+        <v>柔道着の説明</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
+        <v>レザーアーマーの説明</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
+        <v>くされかたびらの説明</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
+        <v>プレートメイルの説明</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8">
-        <v>10013</v>
+      <c r="A30" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="2">
-        <v>5000</v>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>プレートメイルの説明</v>
+        <v>魔法の鎧の説明</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>48</v>
+      <c r="A31" s="8">
+        <v>10015</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
+      <c r="E31" s="2">
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>魔法の鎧の説明</v>
+        <v>なべのふたの説明</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
+        <v>木の盾の説明</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
+        <v>鉄の盾の説明</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
+        <v>むぎわら帽子の説明</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8">
-        <v>10018</v>
+      <c r="A35" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2">
-        <v>10018</v>
+        <v>10019</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="2">
-        <v>20</v>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>むぎわら帽子の説明</v>
+        <v>ケトルハットの説明</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1591,10 +1586,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1605,364 +1600,342 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
+        <v>ヘルムの説明</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
+      <c r="A37" s="8">
+        <v>10021</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2">
-        <v>10020</v>
+        <v>20001</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
+      <c r="E37" s="2">
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ヘルムの説明</v>
+        <v>ポーションの説明</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8">
-        <v>10021</v>
+        <v>10022</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
+        <v>ポーションAの説明</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8">
-        <v>10022</v>
+        <v>10023</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
+        <v>ポーションXの説明</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8">
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
+        <v>ポーションXXXの説明</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8">
-        <v>10024</v>
+        <v>10025</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
+        <v>エーテルの説明</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8">
-        <v>10025</v>
+        <v>10026</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
+        <v>エーテルWの説明</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8">
-        <v>10026</v>
+        <v>10027</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
+        <v>エーテルZの説明</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8">
-        <v>10027</v>
+        <v>10028</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
+        <v>エーテルZZの説明</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8">
-        <v>10028</v>
+        <v>10029</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
+        <v>エリクサーの説明</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8">
-        <v>10029</v>
+        <v>10030</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
+        <v>恋の秘薬の説明</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8">
-        <v>10030</v>
+      <c r="A47" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="2">
-        <v>100000</v>
+      <c r="E47" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>恋の秘薬の説明</v>
+        <v>賢者の石の説明</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2">
-        <v>20011</v>
+        <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
+        <v>たいまつの説明</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10" t="s">
-        <v>48</v>
+      <c r="A49" s="8">
+        <v>10036</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2">
-        <v>20012</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="2">
+        <f>E37*10 * ( 1 -D49)</f>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>たいまつの説明</v>
+        <v>102</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8">
-        <v>10036</v>
+        <v>10037</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D50" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E50" s="2">
-        <f>E38*10 * ( 1 -D50)</f>
-        <v>90</v>
+        <f>(E17+E24+E37) *(1-D50)</f>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="83">
       <c r="A51" s="8">
-        <v>10037</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>10038</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D51" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E51" s="2">
-        <f>(E18+E25+E38) *(1-D51)</f>
-        <v>32</v>
+        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+        <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="83">
-      <c r="A52" s="8">
-        <v>10038</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E52" s="2">
-        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
-        <v>1596</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>111</v>
       </c>
     </row>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -248,10 +248,6 @@
   </si>
   <si>
     <t>斬鉄剣</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
@@ -562,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,6 +572,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,13 +604,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="26">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -619,6 +627,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -950,7 +962,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1296,8 +1308,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>48</v>
+      <c r="A23" s="8">
+        <v>10007</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -1306,11 +1318,11 @@
         <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
+      <c r="E23" s="2">
+        <v>15000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1322,7 +1334,7 @@
         <v>10008</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
         <v>10008</v>
@@ -1332,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1344,7 +1356,7 @@
         <v>10009</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2">
         <v>10009</v>
@@ -1354,7 +1366,7 @@
         <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1366,7 +1378,7 @@
         <v>10010</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
         <v>10010</v>
@@ -1376,7 +1388,7 @@
         <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1388,7 +1400,7 @@
         <v>10011</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
         <v>10011</v>
@@ -1398,7 +1410,7 @@
         <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1410,7 +1422,7 @@
         <v>10012</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2">
         <v>10012</v>
@@ -1420,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1444,7 @@
         <v>10013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
         <v>10013</v>
@@ -1442,7 +1454,7 @@
         <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1454,17 +1466,17 @@
         <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
         <v>10014</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1476,7 +1488,7 @@
         <v>10015</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2">
         <v>10015</v>
@@ -1486,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1498,7 +1510,7 @@
         <v>10016</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
         <v>10016</v>
@@ -1508,7 +1520,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1520,7 +1532,7 @@
         <v>10017</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
         <v>10017</v>
@@ -1530,7 +1542,7 @@
         <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1542,7 +1554,7 @@
         <v>10018</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
         <v>10018</v>
@@ -1552,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1564,7 +1576,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>10019</v>
@@ -1586,7 +1598,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>10020</v>
@@ -1608,7 +1620,7 @@
         <v>10021</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>20001</v>
@@ -1618,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1630,7 +1642,7 @@
         <v>10022</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
         <v>20002</v>
@@ -1640,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1652,7 +1664,7 @@
         <v>10023</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2">
         <v>20003</v>
@@ -1662,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1674,7 +1686,7 @@
         <v>10024</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
         <v>20004</v>
@@ -1684,7 +1696,7 @@
         <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1696,7 +1708,7 @@
         <v>10025</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
         <v>20005</v>
@@ -1706,7 +1718,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1718,7 +1730,7 @@
         <v>10026</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
         <v>20006</v>
@@ -1728,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1740,7 +1752,7 @@
         <v>10027</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
         <v>20007</v>
@@ -1750,7 +1762,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1762,7 +1774,7 @@
         <v>10028</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
         <v>20008</v>
@@ -1772,7 +1784,7 @@
         <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1784,7 +1796,7 @@
         <v>10029</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
         <v>20009</v>
@@ -1794,7 +1806,7 @@
         <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1818,7 @@
         <v>10030</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
         <v>20010</v>
@@ -1816,7 +1828,7 @@
         <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1825,20 +1837,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="2">
         <v>20011</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1850,17 +1862,17 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2">
         <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1872,10 +1884,10 @@
         <v>10036</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D49" s="6">
         <v>0.1</v>
@@ -1885,10 +1897,10 @@
         <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1896,10 +1908,10 @@
         <v>10037</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D50" s="6">
         <v>0.2</v>
@@ -1909,10 +1921,10 @@
         <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="83">
@@ -1920,10 +1932,10 @@
         <v>10038</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D51" s="6">
         <v>0.3</v>
@@ -1933,10 +1945,10 @@
         <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -470,6 +470,10 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
+  </si>
+  <si>
+    <t>assets/items/10025.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -961,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1322,7 +1326,7 @@
         <v>15000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -472,7 +472,15 @@
     <t>ブーストパックの説明</t>
   </si>
   <si>
-    <t>assets/items/10025.jpg</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,7 +974,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1312,8 +1320,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>10007</v>
+      <c r="A23" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -1322,8 +1330,8 @@
         <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2">
-        <v>15000</v>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>111</v>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -474,6 +474,14 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
+  </si>
+  <si>
+    <t>shop_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップコード</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -562,7 +570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,6 +584,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -596,11 +606,12 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -611,6 +622,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -939,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1126,451 +1138,446 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10001</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f>CONCATENATE(B17, "の説明")</f>
-        <v>ナイフの説明</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
-        <v>ダガーの説明</v>
+        <f>CONCATENATE(B18, "の説明")</f>
+        <v>ナイフの説明</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
+        <f t="shared" ref="G19:G49" si="0">CONCATENATE(B19, "の説明")</f>
+        <v>ダガーの説明</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
+        <v>ハチェットの説明</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>1500</v>
+        <v>560</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
+        <v>レイピアの説明</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ファルシオンの説明</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>10006</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10006</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2">
         <v>9800</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>まさかりの説明</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>10007</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>斬鉄剣の説明</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
-        <v>10008</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10008</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>人民服の説明</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
+        <v>人民服の説明</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
+        <v>ローブの説明</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
+        <v>柔道着の説明</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
+        <v>レザーアーマーの説明</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>くされかたびらの説明</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>10013</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10013</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2">
         <v>5000</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>プレートメイルの説明</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>10014</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>魔法の鎧の説明</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
-        <v>10015</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10015</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
+        <v>なべのふたの説明</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
+        <v>木の盾の説明</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>鉄の盾の説明</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8">
+        <v>10018</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10018</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>むぎわら帽子の説明</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10019</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1578,10 +1585,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1592,342 +1599,364 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
+        <v>ケトルハットの説明</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10020</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>ヘルムの説明</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
-        <v>10021</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="2">
-        <v>20001</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
+        <v>ポーションの説明</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
+        <v>ポーションAの説明</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
+        <v>ポーションXの説明</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
+        <v>ポーションXXXの説明</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8">
-        <v>10026</v>
+        <v>10025</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
+        <v>エーテルの説明</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8">
-        <v>10027</v>
+        <v>10026</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
+        <v>エーテルWの説明</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8">
-        <v>10028</v>
+        <v>10027</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
+        <v>エーテルZの説明</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8">
-        <v>10029</v>
+        <v>10028</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
+        <v>エーテルZZの説明</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8">
-        <v>10030</v>
+        <v>10029</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>エリクサーの説明</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8">
+        <v>10030</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20010</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="2">
         <v>100000</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>恋の秘薬の説明</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2">
-        <v>20011</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>賢者の石の説明</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="9" t="str">
+      <c r="G49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>たいまつの説明</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8">
-        <v>10036</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="2">
-        <f>E37*10 * ( 1 -D49)</f>
-        <v>90</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8">
+        <v>10036</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="2">
+        <f>E38*10 * ( 1 -D50)</f>
+        <v>90</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8">
         <v>10037</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>0.2</v>
       </c>
-      <c r="E50" s="2">
-        <f>(E17+E24+E37) *(1-D50)</f>
+      <c r="E51" s="2">
+        <f>(E18+E25+E38) *(1-D51)</f>
         <v>32</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="83">
-      <c r="A51" s="8">
+    <row r="52" spans="1:7" ht="83">
+      <c r="A52" s="8">
         <v>10038</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>0.3</v>
       </c>
-      <c r="E51" s="2">
-        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+      <c r="E52" s="2">
+        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
         <v>1596</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>111</v>
       </c>
     </row>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>113</v>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -474,14 +474,6 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
-  </si>
-  <si>
-    <t>shop_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップコード</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -951,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1138,446 +1130,451 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>CONCATENATE(B17, "の説明")</f>
+        <v>ナイフの説明</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f>CONCATENATE(B18, "の説明")</f>
-        <v>ナイフの説明</v>
+        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
+        <v>ダガーの説明</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" ref="G19:G49" si="0">CONCATENATE(B19, "の説明")</f>
-        <v>ダガーの説明</v>
+        <f t="shared" si="0"/>
+        <v>ハチェットの説明</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
+        <v>レイピアの説明</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>560</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
+        <v>ファルシオンの説明</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
-        <v>1500</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
+        <v>まさかりの説明</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>10006</v>
+      <c r="A23" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2">
-        <v>9800</v>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>まさかりの説明</v>
+        <v>斬鉄剣の説明</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
+      <c r="A24" s="8">
+        <v>10008</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
+      <c r="E24" s="2">
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>斬鉄剣の説明</v>
+        <v>人民服の説明</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>人民服の説明</v>
+        <v>ローブの説明</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
+        <v>柔道着の説明</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
+        <v>レザーアーマーの説明</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
+        <v>くされかたびらの説明</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
+        <v>プレートメイルの説明</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8">
-        <v>10013</v>
+      <c r="A30" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="2">
-        <v>5000</v>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>プレートメイルの説明</v>
+        <v>魔法の鎧の説明</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>48</v>
+      <c r="A31" s="8">
+        <v>10015</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
+      <c r="E31" s="2">
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>魔法の鎧の説明</v>
+        <v>なべのふたの説明</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
+        <v>木の盾の説明</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
+        <v>鉄の盾の説明</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
+        <v>むぎわら帽子の説明</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8">
-        <v>10018</v>
+      <c r="A35" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2">
-        <v>10018</v>
+        <v>10019</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="2">
-        <v>20</v>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>むぎわら帽子の説明</v>
+        <v>ケトルハットの説明</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1585,10 +1582,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1599,364 +1596,342 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
+        <v>ヘルムの説明</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
+      <c r="A37" s="8">
+        <v>10021</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2">
-        <v>10020</v>
+        <v>20001</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
+      <c r="E37" s="2">
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ヘルムの説明</v>
+        <v>ポーションの説明</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8">
-        <v>10021</v>
+        <v>10022</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
+        <v>ポーションAの説明</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8">
-        <v>10022</v>
+        <v>10023</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
+        <v>ポーションXの説明</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8">
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
+        <v>ポーションXXXの説明</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8">
-        <v>10024</v>
+        <v>10025</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
+        <v>エーテルの説明</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8">
-        <v>10025</v>
+        <v>10026</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
+        <v>エーテルWの説明</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8">
-        <v>10026</v>
+        <v>10027</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
+        <v>エーテルZの説明</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8">
-        <v>10027</v>
+        <v>10028</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
+        <v>エーテルZZの説明</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8">
-        <v>10028</v>
+        <v>10029</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
+        <v>エリクサーの説明</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8">
-        <v>10029</v>
+        <v>10030</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
+        <v>恋の秘薬の説明</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8">
-        <v>10030</v>
+      <c r="A47" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="2">
-        <v>100000</v>
+      <c r="E47" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>恋の秘薬の説明</v>
+        <v>賢者の石の説明</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2">
-        <v>20011</v>
+        <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
+        <v>たいまつの説明</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10" t="s">
-        <v>48</v>
+      <c r="A49" s="8">
+        <v>10036</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2">
-        <v>20012</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="2">
+        <f>E37*10 * ( 1 -D49)</f>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>たいまつの説明</v>
+        <v>102</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8">
-        <v>10036</v>
+        <v>10037</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D50" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E50" s="2">
-        <f>E38*10 * ( 1 -D50)</f>
-        <v>90</v>
+        <f>(E17+E24+E37) *(1-D50)</f>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="83">
       <c r="A51" s="8">
-        <v>10037</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>10038</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D51" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E51" s="2">
-        <f>(E18+E25+E38) *(1-D51)</f>
-        <v>32</v>
+        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+        <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="83">
-      <c r="A52" s="8">
-        <v>10038</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E52" s="2">
-        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
-        <v>1596</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>111</v>
       </c>
     </row>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -470,18 +470,6 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -570,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,10 +572,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -616,7 +600,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="22">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -625,8 +609,6 @@
     <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -641,8 +623,6 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -974,7 +954,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -984,6 +964,7 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1319,8 +1300,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
-        <v>111</v>
+      <c r="A23" s="8">
+        <v>10007</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -1329,11 +1310,11 @@
         <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
-        <v>112</v>
+      <c r="E23" s="2">
+        <v>15000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -248,10 +248,6 @@
   </si>
   <si>
     <t>斬鉄剣</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
@@ -562,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,6 +572,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,12 +600,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="22">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -615,6 +620,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -946,7 +954,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1292,8 +1300,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>48</v>
+      <c r="A23" s="8">
+        <v>10007</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -1302,11 +1310,11 @@
         <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
+      <c r="E23" s="2">
+        <v>15000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1318,7 +1326,7 @@
         <v>10008</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
         <v>10008</v>
@@ -1328,7 +1336,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1340,7 +1348,7 @@
         <v>10009</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2">
         <v>10009</v>
@@ -1350,7 +1358,7 @@
         <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1362,7 +1370,7 @@
         <v>10010</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
         <v>10010</v>
@@ -1372,7 +1380,7 @@
         <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1384,7 +1392,7 @@
         <v>10011</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
         <v>10011</v>
@@ -1394,7 +1402,7 @@
         <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +1414,7 @@
         <v>10012</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2">
         <v>10012</v>
@@ -1416,7 +1424,7 @@
         <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1428,7 +1436,7 @@
         <v>10013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
         <v>10013</v>
@@ -1438,7 +1446,7 @@
         <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1450,17 +1458,17 @@
         <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
         <v>10014</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1472,7 +1480,7 @@
         <v>10015</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2">
         <v>10015</v>
@@ -1482,7 +1490,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1494,7 +1502,7 @@
         <v>10016</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
         <v>10016</v>
@@ -1504,7 +1512,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1516,7 +1524,7 @@
         <v>10017</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
         <v>10017</v>
@@ -1526,7 +1534,7 @@
         <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1538,7 +1546,7 @@
         <v>10018</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
         <v>10018</v>
@@ -1548,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1560,7 +1568,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>10019</v>
@@ -1582,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>10020</v>
@@ -1604,7 +1612,7 @@
         <v>10021</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>20001</v>
@@ -1614,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1626,7 +1634,7 @@
         <v>10022</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
         <v>20002</v>
@@ -1636,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1648,7 +1656,7 @@
         <v>10023</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2">
         <v>20003</v>
@@ -1658,7 +1666,7 @@
         <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1670,7 +1678,7 @@
         <v>10024</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
         <v>20004</v>
@@ -1680,7 +1688,7 @@
         <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1692,7 +1700,7 @@
         <v>10025</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
         <v>20005</v>
@@ -1702,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1714,7 +1722,7 @@
         <v>10026</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
         <v>20006</v>
@@ -1724,7 +1732,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1736,7 +1744,7 @@
         <v>10027</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
         <v>20007</v>
@@ -1746,7 +1754,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1758,7 +1766,7 @@
         <v>10028</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
         <v>20008</v>
@@ -1768,7 +1776,7 @@
         <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1780,7 +1788,7 @@
         <v>10029</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
         <v>20009</v>
@@ -1790,7 +1798,7 @@
         <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1802,7 +1810,7 @@
         <v>10030</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
         <v>20010</v>
@@ -1812,7 +1820,7 @@
         <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1821,20 +1829,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="C47" s="2">
         <v>20011</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1846,17 +1854,17 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2">
         <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1868,10 +1876,10 @@
         <v>10036</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D49" s="6">
         <v>0.1</v>
@@ -1881,10 +1889,10 @@
         <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1892,10 +1900,10 @@
         <v>10037</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D50" s="6">
         <v>0.2</v>
@@ -1905,10 +1913,10 @@
         <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="83">
@@ -1916,10 +1924,10 @@
         <v>10038</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D51" s="6">
         <v>0.3</v>
@@ -1929,10 +1937,10 @@
         <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -470,6 +470,10 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
+  </si>
+  <si>
+    <t>assets/items/10025.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -954,7 +958,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1314,7 +1318,7 @@
         <v>15000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -472,7 +472,15 @@
     <t>ブーストパックの説明</t>
   </si>
   <si>
-    <t>assets/items/10025.jpg</t>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,7 +966,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1304,8 +1312,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>10007</v>
+      <c r="A23" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -1314,11 +1322,11 @@
         <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2">
-        <v>15000</v>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -248,10 +248,6 @@
   </si>
   <si>
     <t>斬鉄剣</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
@@ -474,6 +470,30 @@
   </si>
   <si>
     <t>ブーストパックの説明</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップコード</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -562,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,6 +596,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -596,11 +628,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="26">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -611,6 +649,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -939,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -952,7 +996,7 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1126,462 +1170,478 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
+      <c r="H17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
         <v>10001</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>10001</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f>CONCATENATE(B17, "の説明")</f>
-        <v>ナイフの説明</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
-        <v>10002</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2">
-        <v>10002</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
-        <v>ダガーの説明</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f>CONCATENATE(B18, "の説明")</f>
+        <v>ナイフの説明</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <f t="shared" ref="G19:H49" si="0">CONCATENATE(B19, "の説明")</f>
+        <v>ダガーの説明</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>ハチェットの説明</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>1500</v>
+        <v>560</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>レイピアの説明</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ファルシオンの説明</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>10006</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10006</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2">
         <v>9800</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>まさかりの説明</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>10007</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>斬鉄剣の説明</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>10008</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>斬鉄剣の説明</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
+      <c r="C25" s="2">
         <v>10008</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10008</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>人民服の説明</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
-        <v>10009</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10009</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>人民服の説明</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="8">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>ローブの説明</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="8">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>柔道着の説明</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="8">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>レザーアーマーの説明</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>くされかたびらの説明</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8">
+        <v>10013</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10013</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2">
         <v>5000</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>プレートメイルの説明</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>プレートメイルの説明</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C31" s="2">
+        <v>10014</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2">
-        <v>10014</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>魔法の鎧の説明</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8">
+        <v>10015</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>魔法の鎧の説明</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
+      <c r="C32" s="2">
         <v>10015</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10015</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8">
-        <v>10016</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2">
-        <v>10016</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>なべのふたの説明</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="8">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>木の盾の説明</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="8">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>鉄の盾の説明</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
+        <v>10018</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10018</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="9" t="str">
+      <c r="F35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>むぎわら帽子の説明</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10019</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1592,344 +1652,383 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
+        <v>ケトルハットの説明</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10020</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>ヘルムの説明</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8">
         <v>10021</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2">
         <v>20001</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
-        <v>10022</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2">
-        <v>20002</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>ポーションの説明</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="8">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>ポーションAの説明</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="8">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>ポーションXの説明</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="8">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>ポーションXXXの説明</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="8">
-        <v>10026</v>
+        <v>10025</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>エーテルの説明</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="8">
-        <v>10027</v>
+        <v>10026</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>エーテルWの説明</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="8">
-        <v>10028</v>
+        <v>10027</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>エーテルZの説明</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="8">
-        <v>10029</v>
+        <v>10028</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>エーテルZZの説明</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="8">
-        <v>10030</v>
+        <v>10029</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>エリクサーの説明</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>10030</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20010</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="2">
         <v>100000</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>恋の秘薬の説明</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>恋の秘薬の説明</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>20011</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="2">
-        <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
+        <v>賢者の石の説明</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>たいまつの説明</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8">
         <v>10036</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="2">
+        <f>E38*10 * ( 1 -D50)</f>
+        <v>90</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="2">
-        <f>E37*10 * ( 1 -D49)</f>
-        <v>90</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8">
+        <v>10037</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="8">
-        <v>10037</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D51" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="2">
+        <f>(E18+E25+E38) *(1-D51)</f>
+        <v>32</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E50" s="2">
-        <f>(E17+E24+E37) *(1-D50)</f>
-        <v>32</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="G51" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="83">
+      <c r="A52" s="8">
+        <v>10038</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="83">
-      <c r="A51" s="8">
-        <v>10038</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D52" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E52" s="2">
+        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
+        <v>1596</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E51" s="2">
-        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
-        <v>1596</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="G52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="H52" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,6 +596,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -612,7 +628,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="26">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -621,6 +637,8 @@
     <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -635,6 +653,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -963,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -976,7 +996,7 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1150,462 +1170,478 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
+      <c r="H17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
         <v>10001</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>10001</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f>CONCATENATE(B17, "の説明")</f>
-        <v>ナイフの説明</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
-        <v>10002</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2">
-        <v>10002</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
-        <v>ダガーの説明</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f>CONCATENATE(B18, "の説明")</f>
+        <v>ナイフの説明</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <f t="shared" ref="G19:H49" si="0">CONCATENATE(B19, "の説明")</f>
+        <v>ダガーの説明</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>ハチェットの説明</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>1500</v>
+        <v>560</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>レイピアの説明</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ファルシオンの説明</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>10006</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10006</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2">
         <v>9800</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>まさかりの説明</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>10007</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>斬鉄剣の説明</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
         <v>10008</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>10008</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>人民服の説明</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
-        <v>10009</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10009</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>人民服の説明</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="8">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>ローブの説明</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="8">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>柔道着の説明</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="8">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>レザーアーマーの説明</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>くされかたびらの説明</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8">
+        <v>10013</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10013</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2">
         <v>5000</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>プレートメイルの説明</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>10014</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>魔法の鎧の説明</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8">
         <v>10015</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>10015</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8">
-        <v>10016</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2">
-        <v>10016</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>なべのふたの説明</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="8">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>木の盾の説明</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="8">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>鉄の盾の説明</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
+        <v>10018</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10018</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>むぎわら帽子の説明</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10019</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1616,344 +1652,383 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
+        <v>ケトルハットの説明</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10020</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>ヘルムの説明</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8">
         <v>10021</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>20001</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
-        <v>10022</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2">
-        <v>20002</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>ポーションの説明</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="8">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>ポーションAの説明</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="8">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>ポーションXの説明</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="8">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>ポーションXXXの説明</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="8">
-        <v>10026</v>
+        <v>10025</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>エーテルの説明</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="8">
-        <v>10027</v>
+        <v>10026</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>エーテルWの説明</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="8">
-        <v>10028</v>
+        <v>10027</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>エーテルZの説明</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="8">
-        <v>10029</v>
+        <v>10028</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>エーテルZZの説明</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="8">
-        <v>10030</v>
+        <v>10029</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>エリクサーの説明</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>10030</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20010</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="2">
         <v>100000</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="9" t="str">
+      <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>恋の秘薬の説明</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>20011</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="2">
-        <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>賢者の石の説明</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="9" t="str">
+      <c r="G49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>たいまつの説明</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="8">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8">
         <v>10036</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>0.1</v>
       </c>
-      <c r="E49" s="2">
-        <f>E37*10 * ( 1 -D49)</f>
+      <c r="E50" s="2">
+        <f>E38*10 * ( 1 -D50)</f>
         <v>90</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="8">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8">
         <v>10037</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>0.2</v>
       </c>
-      <c r="E50" s="2">
-        <f>(E17+E24+E37) *(1-D50)</f>
+      <c r="E51" s="2">
+        <f>(E18+E25+E38) *(1-D51)</f>
         <v>32</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="83">
-      <c r="A51" s="8">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="83">
+      <c r="A52" s="8">
         <v>10038</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>0.3</v>
       </c>
-      <c r="E51" s="2">
-        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+      <c r="E52" s="2">
+        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
         <v>1596</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="H52" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -986,7 +986,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>115</v>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -481,14 +481,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shop_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップコード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -983,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -999,13 +991,13 @@
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +1006,7 @@
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1015,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1032,16 +1024,16 @@
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1094,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +1111,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1128,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1145,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1170,466 +1162,472 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>CONCATENATE(B17, "の説明")</f>
+        <v>ナイフの説明</v>
+      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f>CONCATENATE(B18, "の説明")</f>
-        <v>ナイフの説明</v>
+        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
+        <v>ダガーの説明</v>
       </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" ref="G19:H49" si="0">CONCATENATE(B19, "の説明")</f>
-        <v>ダガーの説明</v>
+        <f t="shared" si="0"/>
+        <v>ハチェットの説明</v>
       </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
+        <v>レイピアの説明</v>
       </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>560</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
+        <v>ファルシオンの説明</v>
       </c>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
-        <v>1500</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
+        <v>まさかりの説明</v>
       </c>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>10006</v>
+      <c r="A23" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2">
-        <v>9800</v>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>まさかりの説明</v>
+        <v>斬鉄剣の説明</v>
       </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>111</v>
+      <c r="A24" s="8">
+        <v>10008</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
-        <v>112</v>
+      <c r="E24" s="2">
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>斬鉄剣の説明</v>
+        <v>人民服の説明</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>人民服の説明</v>
+        <v>ローブの説明</v>
       </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
+        <v>柔道着の説明</v>
       </c>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
+        <v>レザーアーマーの説明</v>
       </c>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
+        <v>くされかたびらの説明</v>
       </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
+        <v>プレートメイルの説明</v>
       </c>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
-        <v>10013</v>
+      <c r="A30" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="2">
-        <v>5000</v>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>プレートメイルの説明</v>
+        <v>魔法の鎧の説明</v>
       </c>
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
-        <v>48</v>
+      <c r="A31" s="8">
+        <v>10015</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
+      <c r="E31" s="2">
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>魔法の鎧の説明</v>
+        <v>なべのふたの説明</v>
       </c>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
+        <v>木の盾の説明</v>
       </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
+        <v>鉄の盾の説明</v>
       </c>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
+        <v>むぎわら帽子の説明</v>
       </c>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8">
-        <v>10018</v>
+      <c r="A35" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
-        <v>10018</v>
+        <v>10019</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="2">
-        <v>20</v>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>むぎわら帽子の説明</v>
+        <v>ケトルハットの説明</v>
       </c>
       <c r="H35" s="9"/>
     </row>
@@ -1638,10 +1636,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1652,383 +1650,360 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
+        <v>ヘルムの説明</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
+      <c r="A37" s="8">
+        <v>10021</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
-        <v>10020</v>
+        <v>20001</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
+      <c r="E37" s="2">
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ヘルムの説明</v>
+        <v>ポーションの説明</v>
       </c>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8">
-        <v>10021</v>
+        <v>10022</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
+        <v>ポーションAの説明</v>
       </c>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8">
-        <v>10022</v>
+        <v>10023</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
+        <v>ポーションXの説明</v>
       </c>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8">
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
+        <v>ポーションXXXの説明</v>
       </c>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8">
-        <v>10024</v>
+        <v>10025</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
+        <v>エーテルの説明</v>
       </c>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8">
-        <v>10025</v>
+        <v>10026</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
+        <v>エーテルWの説明</v>
       </c>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8">
-        <v>10026</v>
+        <v>10027</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
+        <v>エーテルZの説明</v>
       </c>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8">
-        <v>10027</v>
+        <v>10028</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
+        <v>エーテルZZの説明</v>
       </c>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8">
-        <v>10028</v>
+        <v>10029</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
+        <v>エリクサーの説明</v>
       </c>
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8">
-        <v>10029</v>
+        <v>10030</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
+        <v>恋の秘薬の説明</v>
       </c>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="8">
-        <v>10030</v>
+      <c r="A47" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="2">
-        <v>100000</v>
+      <c r="E47" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>恋の秘薬の説明</v>
+        <v>賢者の石の説明</v>
       </c>
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="10" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2">
-        <v>20011</v>
+        <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
+        <v>たいまつの説明</v>
       </c>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
-        <v>48</v>
+      <c r="A49" s="8">
+        <v>10036</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="2">
-        <v>20012</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="2">
+        <f>E37*10 * ( 1 -D49)</f>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>たいまつの説明</v>
+        <v>101</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8">
-        <v>10036</v>
+        <v>10037</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D50" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E50" s="2">
-        <f>E38*10 * ( 1 -D50)</f>
-        <v>90</v>
+        <f>(E17+E24+E37) *(1-D50)</f>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="83">
       <c r="A51" s="8">
-        <v>10037</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>10038</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D51" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E51" s="2">
-        <f>(E18+E25+E38) *(1-D51)</f>
-        <v>32</v>
+        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+        <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" ht="83">
-      <c r="A52" s="8">
-        <v>10038</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E52" s="2">
-        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
-        <v>1596</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H51" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -481,18 +481,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shop_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -983,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -996,7 +984,6 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1170,478 +1157,462 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2">
         <v>10</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>CONCATENATE(B17, "の説明")</f>
+        <v>ナイフの説明</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f>CONCATENATE(B18, "の説明")</f>
-        <v>ナイフの説明</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
+        <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
+        <v>ダガーの説明</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" ref="G19:H49" si="0">CONCATENATE(B19, "の説明")</f>
-        <v>ダガーの説明</v>
-      </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>ハチェットの説明</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ハチェットの説明</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
+        <v>レイピアの説明</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2">
-        <v>560</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レイピアの説明</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>ファルシオンの説明</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2">
-        <v>1500</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ファルシオンの説明</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>10006</v>
+        <v>まさかりの説明</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2">
-        <v>9800</v>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>まさかりの説明</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>111</v>
+        <v>斬鉄剣の説明</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>10008</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
-        <v>112</v>
+      <c r="E24" s="2">
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>斬鉄剣の説明</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8">
+        <v>人民服の説明</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>人民服の説明</v>
-      </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8">
+        <v>ローブの説明</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="8">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ローブの説明</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8">
+        <v>柔道着の説明</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>柔道着の説明</v>
-      </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
+        <v>レザーアーマーの説明</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>レザーアーマーの説明</v>
-      </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8">
+        <v>くされかたびらの説明</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>くされかたびらの説明</v>
-      </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="8">
-        <v>10013</v>
+        <v>プレートメイルの説明</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="2">
-        <v>5000</v>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>プレートメイルの説明</v>
-      </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
-        <v>48</v>
+        <v>魔法の鎧の説明</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>10015</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
+      <c r="E31" s="2">
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>魔法の鎧の説明</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8">
+        <v>なべのふたの説明</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="8">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>なべのふたの説明</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8">
+        <v>木の盾の説明</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>木の盾の説明</v>
-      </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8">
+        <v>鉄の盾の説明</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>鉄の盾の説明</v>
-      </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="8">
-        <v>10018</v>
+        <v>むぎわら帽子の説明</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
-        <v>10018</v>
+        <v>10019</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="2">
-        <v>20</v>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>むぎわら帽子の説明</v>
-      </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8">
+        <v>ケトルハットの説明</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
@@ -1652,383 +1623,344 @@
       </c>
       <c r="G36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ケトルハットの説明</v>
-      </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
+        <v>ヘルムの説明</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8">
+        <v>10021</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
-        <v>10020</v>
+        <v>20001</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
+      <c r="E37" s="2">
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ヘルムの説明</v>
-      </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8">
+        <v>ポーションの説明</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="8">
-        <v>10021</v>
+        <v>10022</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションの説明</v>
-      </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8">
+        <v>ポーションAの説明</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="8">
-        <v>10022</v>
+        <v>10023</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションAの説明</v>
-      </c>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8">
+        <v>ポーションXの説明</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="8">
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXの説明</v>
-      </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8">
+        <v>ポーションXXXの説明</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="8">
-        <v>10024</v>
+        <v>10025</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ポーションXXXの説明</v>
-      </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8">
+        <v>エーテルの説明</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="8">
-        <v>10025</v>
+        <v>10026</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルの説明</v>
-      </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
+        <v>エーテルWの説明</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="8">
-        <v>10026</v>
+        <v>10027</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルWの説明</v>
-      </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8">
+        <v>エーテルZの説明</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="8">
-        <v>10027</v>
+        <v>10028</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZの説明</v>
-      </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8">
+        <v>エーテルZZの説明</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="8">
-        <v>10028</v>
+        <v>10029</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エーテルZZの説明</v>
-      </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8">
+        <v>エリクサーの説明</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="8">
-        <v>10029</v>
+        <v>10030</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>エリクサーの説明</v>
-      </c>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="8">
-        <v>10030</v>
+        <v>恋の秘薬の説明</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="2">
-        <v>100000</v>
+      <c r="E47" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>恋の秘薬の説明</v>
-      </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8">
+        <v>賢者の石の説明</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2">
-        <v>20011</v>
+        <v>20012</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>賢者の石の説明</v>
-      </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
-        <v>48</v>
+        <v>たいまつの説明</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8">
+        <v>10036</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="2">
-        <v>20012</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="2">
+        <f>E37*10 * ( 1 -D49)</f>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>たいまつの説明</v>
-      </c>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="8">
-        <v>10036</v>
+        <v>10037</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D50" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E50" s="2">
-        <f>E38*10 * ( 1 -D50)</f>
-        <v>90</v>
+        <f>(E17+E24+E37) *(1-D50)</f>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="83">
       <c r="A51" s="8">
-        <v>10037</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>10038</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D51" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E51" s="2">
-        <f>(E18+E25+E38) *(1-D51)</f>
-        <v>32</v>
+        <f>(E19+E28+E33+E38*5) * (1-D51)</f>
+        <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" ht="83">
-      <c r="A52" s="8">
-        <v>10038</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E52" s="2">
-        <f>(E20+E29+E34+E39*5) * (1-D52)</f>
-        <v>1596</v>
-      </c>
-      <c r="F52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/shop.xlsx
+++ b/app/seeds/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -481,10 +481,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -988,16 +984,15 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1001,7 @@
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1010,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1024,16 +1019,16 @@
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1089,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1106,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1123,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1145,7 +1140,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1162,13 +1157,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1190,11 +1185,8 @@
       <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="8">
         <v>10001</v>
       </c>
@@ -1215,9 +1207,8 @@
         <f>CONCATENATE(B17, "の説明")</f>
         <v>ナイフの説明</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>10002</v>
       </c>
@@ -1238,9 +1229,8 @@
         <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
         <v>ダガーの説明</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>10003</v>
       </c>
@@ -1261,9 +1251,8 @@
         <f t="shared" si="0"/>
         <v>ハチェットの説明</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>10004</v>
       </c>
@@ -1284,9 +1273,8 @@
         <f t="shared" si="0"/>
         <v>レイピアの説明</v>
       </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>10005</v>
       </c>
@@ -1307,9 +1295,8 @@
         <f t="shared" si="0"/>
         <v>ファルシオンの説明</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
         <v>10006</v>
       </c>
@@ -1330,9 +1317,8 @@
         <f t="shared" si="0"/>
         <v>まさかりの説明</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
         <v>111</v>
       </c>
@@ -1353,9 +1339,8 @@
         <f t="shared" si="0"/>
         <v>斬鉄剣の説明</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="8">
         <v>10008</v>
       </c>
@@ -1376,9 +1361,8 @@
         <f t="shared" si="0"/>
         <v>人民服の説明</v>
       </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
         <v>10009</v>
       </c>
@@ -1399,9 +1383,8 @@
         <f t="shared" si="0"/>
         <v>ローブの説明</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="8">
         <v>10010</v>
       </c>
@@ -1422,9 +1405,8 @@
         <f t="shared" si="0"/>
         <v>柔道着の説明</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
         <v>10011</v>
       </c>
@@ -1445,9 +1427,8 @@
         <f t="shared" si="0"/>
         <v>レザーアーマーの説明</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
         <v>10012</v>
       </c>
@@ -1468,9 +1449,8 @@
         <f t="shared" si="0"/>
         <v>くされかたびらの説明</v>
       </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
         <v>10013</v>
       </c>
@@ -1491,9 +1471,8 @@
         <f t="shared" si="0"/>
         <v>プレートメイルの説明</v>
       </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -1514,9 +1493,8 @@
         <f t="shared" si="0"/>
         <v>魔法の鎧の説明</v>
       </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="8">
         <v>10015</v>
       </c>
@@ -1537,9 +1515,8 @@
         <f t="shared" si="0"/>
         <v>なべのふたの説明</v>
       </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="8">
         <v>10016</v>
       </c>
@@ -1560,9 +1537,8 @@
         <f t="shared" si="0"/>
         <v>木の盾の説明</v>
       </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
         <v>10017</v>
       </c>
@@ -1583,9 +1559,8 @@
         <f t="shared" si="0"/>
         <v>鉄の盾の説明</v>
       </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>10018</v>
       </c>
@@ -1606,9 +1581,8 @@
         <f t="shared" si="0"/>
         <v>むぎわら帽子の説明</v>
       </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
         <v>47</v>
       </c>
@@ -1629,9 +1603,8 @@
         <f t="shared" si="0"/>
         <v>ケトルハットの説明</v>
       </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
@@ -1652,9 +1625,8 @@
         <f t="shared" si="0"/>
         <v>ヘルムの説明</v>
       </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="8">
         <v>10021</v>
       </c>
@@ -1675,9 +1647,8 @@
         <f t="shared" si="0"/>
         <v>ポーションの説明</v>
       </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="8">
         <v>10022</v>
       </c>
@@ -1698,9 +1669,8 @@
         <f t="shared" si="0"/>
         <v>ポーションAの説明</v>
       </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="8">
         <v>10023</v>
       </c>
@@ -1721,9 +1691,8 @@
         <f t="shared" si="0"/>
         <v>ポーションXの説明</v>
       </c>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="8">
         <v>10024</v>
       </c>
@@ -1744,9 +1713,8 @@
         <f t="shared" si="0"/>
         <v>ポーションXXXの説明</v>
       </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="8">
         <v>10025</v>
       </c>
@@ -1767,9 +1735,8 @@
         <f t="shared" si="0"/>
         <v>エーテルの説明</v>
       </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="8">
         <v>10026</v>
       </c>
@@ -1790,9 +1757,8 @@
         <f t="shared" si="0"/>
         <v>エーテルWの説明</v>
       </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="8">
         <v>10027</v>
       </c>
@@ -1813,9 +1779,8 @@
         <f t="shared" si="0"/>
         <v>エーテルZの説明</v>
       </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="8">
         <v>10028</v>
       </c>
@@ -1836,9 +1801,8 @@
         <f t="shared" si="0"/>
         <v>エーテルZZの説明</v>
       </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="8">
         <v>10029</v>
       </c>
@@ -1859,9 +1823,8 @@
         <f t="shared" si="0"/>
         <v>エリクサーの説明</v>
       </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="8">
         <v>10030</v>
       </c>
@@ -1882,9 +1845,8 @@
         <f t="shared" si="0"/>
         <v>恋の秘薬の説明</v>
       </c>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
         <v>95</v>
       </c>
@@ -1905,9 +1867,8 @@
         <f t="shared" si="0"/>
         <v>賢者の石の説明</v>
       </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
         <v>48</v>
       </c>
@@ -1928,9 +1889,8 @@
         <f t="shared" si="0"/>
         <v>たいまつの説明</v>
       </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="8">
         <v>10036</v>
       </c>
@@ -1953,9 +1913,8 @@
       <c r="G49" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="8">
         <v>10037</v>
       </c>
@@ -1978,9 +1937,8 @@
       <c r="G50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" ht="83">
+    </row>
+    <row r="51" spans="1:7" ht="83">
       <c r="A51" s="8">
         <v>10038</v>
       </c>
@@ -2003,7 +1961,6 @@
       <c r="G51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
